--- a/oci_tenancy/SetUpOCI_Via_TF/example/MVT-CD3-Template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/MVT-CD3-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -40,14 +40,14 @@
     <definedName name="Shape_Option" localSheetId="20">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
-    <definedName name="VM_Shapes">DB_System_VM!$Y$398:$Y$408</definedName>
+    <definedName name="VM_Shapes">DB_System_VM!$Y$397:$Y$407</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="382">
   <si>
     <t>Regional</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ssh_public_key</t>
   </si>
   <si>
+    <t>PHXHub-VCN</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>PHXNonProd-VCN</t>
   </si>
   <si>
     <t>subnet_name</t>
@@ -131,9 +131,6 @@
     <t>OS</t>
   </si>
   <si>
-    <t>Subnet</t>
-  </si>
-  <si>
     <t>Enviroment</t>
   </si>
   <si>
@@ -194,15 +191,9 @@
     <t>Networking</t>
   </si>
   <si>
-    <t>Compartment for Networking Objects</t>
-  </si>
-  <si>
     <t>&lt;END&gt;</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>OCI_Admins</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>Network_Admins</t>
   </si>
   <si>
-    <t>Network Administrators</t>
-  </si>
-  <si>
     <t>Policy Statements</t>
   </si>
   <si>
@@ -342,9 +330,6 @@
   </si>
   <si>
     <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet; server_type field is also case-sensitive.  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
-  </si>
-  <si>
-    <t>Test1</t>
   </si>
   <si>
     <t>all</t>
@@ -367,21 +352,11 @@
 Enter Region as your tenancy's Home Region for Group Creation</t>
   </si>
   <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-Enter Region as your tenancy's Home Region for Tags Creation</t>
-  </si>
-  <si>
     <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;If Compartment Name is left empty or mentioned 'root', policy will be created in root compartment;
 # Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
 Enter Region as your tenancy's Home Region for Policy Creation</t>
   </si>
   <si>
-    <t>regions</t>
-  </si>
-  <si>
-    <t>Ashburn,Phoenix</t>
-  </si>
-  <si>
     <t>NSGName</t>
   </si>
   <si>
@@ -409,36 +384,15 @@
     <t>udp</t>
   </si>
   <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>oci-phx-objectstorage</t>
-  </si>
-  <si>
     <t>NSGs</t>
   </si>
   <si>
     <t>Valid values for sourcetype or destinationtype are: cidr(for CIDR_BLOCK), nsg(for NETWORK_SECURITY_GROUP) and service(for SERVICE_CIDR_BLOCK)</t>
   </si>
   <si>
-    <t>VM-Resources</t>
-  </si>
-  <si>
-    <t>Compartment for all other Resources</t>
-  </si>
-  <si>
-    <t>ASHProd-VCN</t>
-  </si>
-  <si>
-    <t>dev-subnet</t>
-  </si>
-  <si>
     <t>10.110.1.0/24</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>FAULT-DOMAIN-1</t>
   </si>
   <si>
@@ -448,12 +402,6 @@
     <t>VM.Standard2.8</t>
   </si>
   <si>
-    <t>LinuxLatest</t>
-  </si>
-  <si>
-    <t>Test1_disk2</t>
-  </si>
-  <si>
     <t>paravirtualized</t>
   </si>
   <si>
@@ -475,21 +423,9 @@
     <t>OL76=</t>
   </si>
   <si>
-    <t>prod=</t>
-  </si>
-  <si>
-    <t>dev=true</t>
-  </si>
-  <si>
     <t>prod=True</t>
   </si>
   <si>
-    <t>ash-nsg2</t>
-  </si>
-  <si>
-    <t>ash-nsg1</t>
-  </si>
-  <si>
     <t>phx-nsg1</t>
   </si>
   <si>
@@ -517,19 +453,7 @@
     <t>DVH.Standard2.52</t>
   </si>
   <si>
-    <t>VM2</t>
-  </si>
-  <si>
     <t>AD2</t>
-  </si>
-  <si>
-    <t>FAULT-DOMAIN-3</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>VM1</t>
   </si>
   <si>
     <t>All fields are mandatory except fault domain which you can leave blank</t>
@@ -610,9 +534,6 @@
   </si>
   <si>
     <t>LBR Hostname</t>
-  </si>
-  <si>
-    <t>my_lbr</t>
   </si>
   <si>
     <t>Backend
@@ -636,16 +557,10 @@
     <t>400Mbps</t>
   </si>
   <si>
-    <t>10.111.1.4:80,Test2:81</t>
-  </si>
-  <si>
     <t>IP_HASH</t>
   </si>
   <si>
     <t>/welcome.html</t>
-  </si>
-  <si>
-    <t>app.example.com</t>
   </si>
   <si>
     <t>UseSSL (y|n)</t>
@@ -873,9 +788,6 @@
     <t>MT2</t>
   </si>
   <si>
-    <t>HUB_SERVICES_SN</t>
-  </si>
-  <si>
     <t>FSS3</t>
   </si>
   <si>
@@ -918,9 +830,6 @@
     <t>RuleDescription</t>
   </si>
   <si>
-    <t>objectstorage</t>
-  </si>
-  <si>
     <t>Character Set</t>
   </si>
   <si>
@@ -930,9 +839,6 @@
     <t>Recovery Windows in days</t>
   </si>
   <si>
-    <t>TestK_testk_sub_1</t>
-  </si>
-  <si>
     <t>VMDB28</t>
   </si>
   <si>
@@ -948,12 +854,6 @@
     <t>RACDB21</t>
   </si>
   <si>
-    <t>VMDB282</t>
-  </si>
-  <si>
-    <t>RACDB212</t>
-  </si>
-  <si>
     <t>VM Shapes</t>
   </si>
   <si>
@@ -1005,9 +905,6 @@
     <t>Backup Subnet Name</t>
   </si>
   <si>
-    <t>TestK_testk_sub_2</t>
-  </si>
-  <si>
     <t>EXADB21</t>
   </si>
   <si>
@@ -1032,20 +929,181 @@
     <t>Exadata.Full1.336</t>
   </si>
   <si>
+    <t>PHXHub-VCN_PHXHub-VCN-subnet1</t>
+  </si>
+  <si>
+    <t>lpg_required</t>
+  </si>
+  <si>
+    <t>hub_spoke_peer_none</t>
+  </si>
+  <si>
+    <t>onprem_destinations</t>
+  </si>
+  <si>
+    <t>configure SGW route
+(n|object_storage|all_services)</t>
+  </si>
+  <si>
+    <t>configure NGW route
+(y|n)</t>
+  </si>
+  <si>
+    <t>configure IGW route (y|n)</t>
+  </si>
+  <si>
+    <t>configure OnPrem route (y|n)</t>
+  </si>
+  <si>
+    <t>configure VCNPeering
+route (y|n)</t>
+  </si>
+  <si>
+    <t>RouteTableName</t>
+  </si>
+  <si>
+    <t>SecListName</t>
+  </si>
+  <si>
+    <t>#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>Route Rules will be exported here</t>
+  </si>
+  <si>
+    <t>SecRules will be exported here</t>
+  </si>
+  <si>
+    <t>seclist_names</t>
+  </si>
+  <si>
+    <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
+left blank means subnet will use default dhcp options of the vcn.
+dns_label - if specified as n, DNS will not be enabled for the subnet; Make sure dns_label for VCN is enabled for its subnet DNS to be enabled.
+vcn_name should be same as enterd in VCNs sheet.
+Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
+want any custom security list to be attached to the subnet.
+route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
+ want any custom route table to be attached to the subnet.
+Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
+dns_label - if specified as n, DNS will not be enabled for the VCN
+Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
+Note- For DRG, if declaring multiple DRGs for a region, make sure to specify unique names.
+Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
+Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
+</t>
+  </si>
+  <si>
     <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>lpg_required</t>
-  </si>
-  <si>
-    <t>hub_spoke_peer_none</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>onprem_destinations</t>
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+#If shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::ocpus</t>
+  </si>
+  <si>
+    <t>ListenerName</t>
+  </si>
+  <si>
+    <t>listenr1</t>
+  </si>
+  <si>
+    <t>listenr2</t>
+  </si>
+  <si>
+    <t>my_lbr1</t>
+  </si>
+  <si>
+    <t>my_lbr2</t>
+  </si>
+  <si>
+    <t>100Mbps</t>
+  </si>
+  <si>
+    <t>10.111.1.5:80,Test2:81</t>
+  </si>
+  <si>
+    <t>10.111.1.4:80,Test1:81</t>
+  </si>
+  <si>
+    <t>10.111.1.6:80</t>
+  </si>
+  <si>
+    <t>listenr</t>
+  </si>
+  <si>
+    <t>ROUND_ROBIN</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>app1.example.com</t>
+  </si>
+  <si>
+    <t>app2.example.com,app3.example.com</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical column under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+Enter Region as your tenancy's Home Region for Tags Creation</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN</t>
+  </si>
+  <si>
+    <t>PHXTCC-VCN</t>
+  </si>
+  <si>
+    <t>all_services</t>
+  </si>
+  <si>
+    <t>ebs-nsg</t>
+  </si>
+  <si>
+    <t>tcc-nsg</t>
+  </si>
+  <si>
+    <t>EBSInstance</t>
+  </si>
+  <si>
+    <t>TCCInstance</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN_qa-subnet</t>
+  </si>
+  <si>
+    <t>PHXTCC-VCN_prd-subnet</t>
+  </si>
+  <si>
+    <t>Apps::TCC::PRD</t>
+  </si>
+  <si>
+    <t>EBSInstance_Disk2</t>
+  </si>
+  <si>
+    <t>TCCInstance_Disk2</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN_dev-subnet</t>
   </si>
   <si>
     <r>
@@ -1137,19 +1195,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> represents naming convention; Mention y if you want to attachd AD and CIDR to object's display name; defaults to n
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">regions </t>
+      <t xml:space="preserve"> represents naming convention; Mention y if you want to attachd AD and CIDR to object's display name; defaults to n</t>
     </r>
     <r>
       <rPr>
@@ -1159,33 +1205,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">represents regions client's tenancy is subscribed to and plan to build infra for;accepts comma seperated list; case insensitive; (allowed values: ashburn, phoenix, london, frankfurt, toronto, tokyo, seoul, mumbai)
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
   <si>
-    <t>configure SGW route
-(n|object_storage|all_services)</t>
-  </si>
-  <si>
-    <t>configure NGW route
-(y|n)</t>
-  </si>
-  <si>
-    <t>configure IGW route (y|n)</t>
-  </si>
-  <si>
-    <t>configure OnPrem route (y|n)</t>
-  </si>
-  <si>
-    <t>configure VCNPeering
-route (y|n)</t>
-  </si>
-  <si>
-    <t>RouteTableName</t>
-  </si>
-  <si>
-    <t>SecListName</t>
+    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, LBR Hostname is to be left empty if creating TCP listener; all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; Allows multiple Listeners(seperate rows) per LBR and multiple Hostnames(comma seperated) per Listener
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>20.20.20.20/32</t>
   </si>
   <si>
     <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
@@ -1193,144 +1222,125 @@
 Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
 Resources will be created based on MountTargetName and FSSName columns.
 #Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
-  </si>
-  <si>
-    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; As of now allows only one BackendSet, One Listener and one Hostname for each LBR
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>Route Rules will be exported here</t>
-  </si>
-  <si>
-    <t>SecRules will be exported here</t>
-  </si>
-  <si>
-    <t>seclist_names</t>
-  </si>
-  <si>
-    <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
-left blank means subnet will use default dhcp options of the vcn.
-dns_label - if specified as n, DNS will not be enabled for the subnet; Make sure dns_label for VCN is enabled for its subnet DNS to be enabled.
-vcn_name should be same as enterd in VCNs sheet.
-Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
-want any custom security list to be attached to the subnet.
-route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
- want any custom route table to be attached to the subnet.
-Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
-dns_label - if specified as n, DNS will not be enabled for the VCN
-Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
-Note- For DRG, if declaring multiple DRGs for a region, make sure to specify unique names.
-Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
-Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
-</t>
-  </si>
-  <si>
-    <t>Automation Toolkit release verion- v6.0
-Tabs Affected: Subnets
-Major Feature - Support for NonGreenField Tenancies</t>
-  </si>
-  <si>
-    <t>Apps</t>
+Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4); Also shows multiple export options</t>
+  </si>
+  <si>
+    <t>LinuxLatest</t>
+  </si>
+  <si>
+    <t>Automation Toolkit release verion- v6.1
+Tabs Affected: SecRulesinOCI, RouteRulesinOCI, VCN Info, FSS, LBR, Instances
+Major Features - Support for Duplicate Compartment Names, New GIT Repo</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Compartment for Networking Objects</t>
+  </si>
+  <si>
+    <t>Compartment for all other Resources</t>
+  </si>
+  <si>
+    <t>OCI_Viewers</t>
+  </si>
+  <si>
+    <t>Viewer Group</t>
+  </si>
+  <si>
+    <t>Network Administrators</t>
+  </si>
+  <si>
+    <t>Apps_Admins</t>
+  </si>
+  <si>
+    <t>Compute Apps admins</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
+    <t>Administrators</t>
+  </si>
+  <si>
     <t>Allow group $ to manage all-resources in tenancy</t>
   </si>
   <si>
-    <t>Administrators</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
+    <t>ViewerPolicy</t>
+  </si>
+  <si>
+    <t>Viewers</t>
+  </si>
+  <si>
+    <t>AppsPolicy</t>
+  </si>
+  <si>
+    <t>Apps Manage</t>
+  </si>
+  <si>
+    <t>Allow group $ to manage database-family in compartment *</t>
+  </si>
+  <si>
+    <t>Allow group $ to manage volume-family in compartment *</t>
+  </si>
+  <si>
+    <t>Allow group $ to use virtual-network-family in compartment *</t>
+  </si>
+  <si>
+    <t>InfrastructurePolicy</t>
+  </si>
+  <si>
+    <t>Infrastructure Manage</t>
   </si>
   <si>
     <t>Allow group $ to manage virtual-network-family in compartment *</t>
   </si>
   <si>
-    <t>Allow group $ to use virtual-network-family in compartment *</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage volume-family in compartment *</t>
-  </si>
-  <si>
     <t>mvt-vcn</t>
   </si>
   <si>
-    <t>172.0.0.0/8</t>
+    <t>none</t>
   </si>
   <si>
     <t>mvt-dmz</t>
   </si>
   <si>
+    <t>public</t>
+  </si>
+  <si>
     <t>mvt-app</t>
   </si>
   <si>
+    <t>10.110.2.0/24</t>
+  </si>
+  <si>
     <t>mvt-db</t>
   </si>
   <si>
-    <t>10.110.2.0/24</t>
-  </si>
-  <si>
     <t>10.110.3.0/24</t>
   </si>
   <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>all_services</t>
-  </si>
-  <si>
-    <t>AppsPolicy</t>
-  </si>
-  <si>
-    <t>Apps Manage</t>
-  </si>
-  <si>
-    <t>InfrastructurePolicy</t>
-  </si>
-  <si>
-    <t>Infrastructure Manage</t>
+    <t>mvt-dmz1</t>
+  </si>
+  <si>
+    <t>mvt-vcn_mvt-dmz</t>
+  </si>
+  <si>
+    <t>mvt-dmz2</t>
   </si>
   <si>
     <t>mvt-app1</t>
   </si>
   <si>
+    <t>mvt-vcn_mvt-app</t>
+  </si>
+  <si>
     <t>mvt-app2</t>
   </si>
   <si>
-    <t>mvt-vcn_mvt-dmz</t>
-  </si>
-  <si>
-    <t>mvt-vcn_mvt-app</t>
-  </si>
-  <si>
     <t>mvt-vcn_mvt-db</t>
   </si>
   <si>
-    <t>mvt-dmz1</t>
-  </si>
-  <si>
-    <t>mvt-dmz2</t>
-  </si>
-  <si>
     <t>mvt-dmz1_Disk2</t>
   </si>
   <si>
@@ -1344,27 +1354,6 @@
   </si>
   <si>
     <t>mvt-db_Disk2</t>
-  </si>
-  <si>
-    <t>Apps_Admins</t>
-  </si>
-  <si>
-    <t>Compute Apps admins</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage database-family in compartment *</t>
-  </si>
-  <si>
-    <t>OCI_Viewers</t>
-  </si>
-  <si>
-    <t>Viewer Group</t>
-  </si>
-  <si>
-    <t>ViewerPolicy</t>
-  </si>
-  <si>
-    <t>Viewers</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1637,7 +1626,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1654,7 +1642,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1664,6 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1717,13 +1705,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1790,6 +1771,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2182,7 +2164,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2191,8 +2173,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
-        <v>341</v>
+      <c r="A2" s="43" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2205,15 +2187,15 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
@@ -2222,21 +2204,21 @@
     <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2254,18 +2236,18 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C3" s="1">
         <v>500</v>
@@ -2274,22 +2256,22 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C4" s="1">
         <v>500</v>
@@ -2298,22 +2280,22 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
@@ -2322,22 +2304,22 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1">
         <v>500</v>
@@ -2346,22 +2328,22 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -2370,16 +2352,17 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
+        <v>320</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -2390,66 +2373,72 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="19.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.08984375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.81640625" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="16" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:10" s="30" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2458,127 +2447,133 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="17.7265625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="17.7265625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="16" customWidth="1"/>
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="17"/>
+    <col min="16" max="16" width="9.1796875" style="16"/>
     <col min="17" max="17" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-    </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="12" t="s">
+    <row r="1" spans="1:18" s="30" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+    </row>
+    <row r="2" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="P2" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2589,7 +2584,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2607,113 +2602,113 @@
     <col min="18" max="18" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="N2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="O2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R2" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>117</v>
+        <v>104</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2721,47 +2716,45 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="O4" s="1">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -2769,31 +2762,31 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2801,44 +2794,44 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>143</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I6" s="24"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="1">
+        <v>53</v>
+      </c>
+      <c r="O6" s="1">
+        <v>53</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2854,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2870,102 +2863,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>151</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2977,127 +2938,127 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="16" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="26" customWidth="1"/>
     <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="16" customWidth="1"/>
     <col min="12" max="12" width="10.1796875" customWidth="1"/>
     <col min="13" max="13" width="12.26953125" customWidth="1"/>
     <col min="16" max="16" width="11.1796875" customWidth="1"/>
     <col min="17" max="17" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-    </row>
-    <row r="2" spans="1:17" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+    </row>
+    <row r="2" spans="1:17" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>149</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3106,166 +3067,191 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>265</v>
-      </c>
+    <row r="4" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>265</v>
+        <v>149</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>284</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3278,175 +3264,291 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="17"/>
-    <col min="2" max="2" width="12.54296875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="17"/>
-    <col min="4" max="4" width="12.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="17"/>
-    <col min="14" max="14" width="15.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="14.6328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="17"/>
-    <col min="18" max="18" width="11.36328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="16"/>
+    <col min="2" max="2" width="12.54296875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="16"/>
+    <col min="4" max="4" width="12.1796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="16"/>
+    <col min="15" max="15" width="15.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="16"/>
+    <col min="19" max="19" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.36328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-    </row>
-    <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>58</v>
+    <row r="1" spans="1:20" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+    </row>
+    <row r="2" spans="1:20" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>163</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="1">
+        <v>164</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="1">
         <v>80</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="1">
+        <v>165</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="1">
         <v>443</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S3" s="1"/>
+      <c r="O3" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="1">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="1">
+        <v>443</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="1">
+        <v>80</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N5" s="1">
+        <v>80</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3455,44 +3557,43 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>25</v>
@@ -3500,189 +3601,162 @@
       <c r="F2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="67" t="s">
+      <c r="D3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="68"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="68"/>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="11"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="11"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="11"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="11"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="11"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="68"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="68"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="69"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:C18"/>
     <mergeCell ref="B3:B18"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3692,95 +3766,84 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>80</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3788,95 +3851,84 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="18" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>80</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3887,78 +3939,120 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3988,197 +4082,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="A1" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>207</v>
+      <c r="A2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="31">
+      <c r="A3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="30">
         <v>1</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>1</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>211</v>
+      <c r="H3" s="30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>214</v>
+      <c r="H4" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="30">
         <v>1</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>211</v>
+      <c r="H5" s="30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>214</v>
+      <c r="H6" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="A7" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>214</v>
+      <c r="H7" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="31">
+      <c r="A8" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="30">
         <v>1</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>1</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>214</v>
+      <c r="H8" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4191,276 +4285,276 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y408"/>
+  <dimension ref="A1:Y407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="20" style="31" customWidth="1"/>
-    <col min="4" max="4" width="14" style="31" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="15" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="31"/>
-    <col min="11" max="11" width="17.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="31"/>
-    <col min="18" max="18" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="13.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="31"/>
-    <col min="25" max="25" width="18.26953125" style="31" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
+    <col min="2" max="2" width="13.36328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="30"/>
+    <col min="11" max="11" width="17.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="30"/>
+    <col min="18" max="18" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="30"/>
+    <col min="25" max="25" width="18.26953125" style="30" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="33" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="73"/>
+    <row r="1" spans="1:23" s="32" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="67"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>283</v>
+      <c r="U2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>199</v>
+      <c r="A3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="G3" s="39">
+      <c r="E3" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="38">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="39">
+      <c r="H3" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="38">
         <v>256</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T3" s="39" t="s">
+      <c r="J3" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>199</v>
+      <c r="A4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="39">
+      <c r="E4" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="38">
         <v>2</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I4" s="39">
+      <c r="H4" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="38">
         <v>256</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T4" s="39" t="s">
+      <c r="J4" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="T4" s="38" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -4468,139 +4562,68 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="39">
-        <v>2</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="39">
-        <v>256</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T5" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="W5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="396" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y396" s="42" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y397" s="43" t="s">
-        <v>292</v>
+      <c r="Y397" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="403" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y403" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="404" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y404" s="1" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
     </row>
     <row r="405" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y405" s="1" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="406" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y406" s="1" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
     </row>
     <row r="407" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y407" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="408" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y408" s="1" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4608,8 +4631,8 @@
     <mergeCell ref="A1:W1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F402">
-      <formula1>$Y$398:$Y$408</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F401">
+      <formula1>$Y$397:$Y$407</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4622,297 +4645,297 @@
   <dimension ref="A1:Y398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="31"/>
-    <col min="4" max="4" width="9.81640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="31"/>
-    <col min="11" max="11" width="8.7265625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" style="31" customWidth="1"/>
-    <col min="17" max="18" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="13.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="31"/>
-    <col min="25" max="25" width="14.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
+    <col min="2" max="2" width="13.36328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="30"/>
+    <col min="4" max="4" width="9.81640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="30"/>
+    <col min="11" max="11" width="8.7265625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="30" customWidth="1"/>
+    <col min="17" max="18" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="30"/>
+    <col min="25" max="25" width="14.90625" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="33" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="42"/>
+    <row r="1" spans="1:24" s="32" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="38">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="38">
+        <v>256</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="36" t="s">
+      <c r="N3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="P3" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" s="39">
-        <v>2</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="I3" s="39">
+      <c r="S3" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="T3" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>199</v>
+      <c r="A4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="38">
+        <v>2</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="38">
+        <v>256</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="39">
-        <v>2</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="39">
+      <c r="V4" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="31"/>
+      <c r="A5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="30"/>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y396" s="43" t="s">
-        <v>303</v>
+      <c r="Y396" s="42" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4937,250 +4960,252 @@
   <dimension ref="A1:Y402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="31"/>
-    <col min="11" max="11" width="17.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" style="31" customWidth="1"/>
-    <col min="17" max="18" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="13.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="31"/>
-    <col min="25" max="25" width="18.26953125" style="31" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
+    <col min="2" max="2" width="13.36328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="30"/>
+    <col min="11" max="11" width="17.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="30" customWidth="1"/>
+    <col min="17" max="18" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="30"/>
+    <col min="25" max="25" width="18.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="33" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="73"/>
+    <row r="1" spans="1:23" s="32" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="67"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="34" t="s">
+      <c r="U2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="P2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>2</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>256</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T3" s="39" t="s">
+      <c r="J3" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="31"/>
+      <c r="A4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="27"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="395" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y395" s="43" t="s">
-        <v>311</v>
+      <c r="Y395" s="42" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5205,94 +5230,92 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
+      <c r="A1" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5308,219 +5331,214 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="A1" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5535,47 +5553,47 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="18.08984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="18.08984375" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
     <col min="6" max="6" width="12.08984375" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="31" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="30" customWidth="1"/>
     <col min="10" max="10" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
+      <c r="A1" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5584,95 +5602,111 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+    </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5691,69 +5725,63 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="32.26953125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="61"/>
+      <c r="A1" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>88</v>
+      <c r="A2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>351</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5769,16 +5797,16 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="18" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
+    <col min="2" max="2" width="18" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.453125" customWidth="1"/>
@@ -5787,22 +5815,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="A1" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5822,8 +5850,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5839,15 +5873,15 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
     <col min="2" max="2" width="18.36328125" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
@@ -5855,43 +5889,43 @@
     <col min="6" max="6" width="22.1796875" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="31" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="30" customWidth="1"/>
     <col min="12" max="12" width="9.81640625" customWidth="1"/>
     <col min="13" max="13" width="9.453125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10" style="31" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="10" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="30" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="A1" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5912,93 +5946,93 @@
         <v>23</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
-        <v>94</v>
+        <v>290</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="13" t="s">
-        <v>10</v>
+      <c r="K3" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -6010,40 +6044,40 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="N4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -6055,28 +6089,28 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="P5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6095,59 +6129,114 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+    <row r="7" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6163,15 +6252,15 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
@@ -6179,7 +6268,7 @@
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
     <col min="10" max="10" width="16.81640625" customWidth="1"/>
     <col min="11" max="11" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
@@ -6188,246 +6277,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="56"/>
+      <c r="A1" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>158</v>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="O3" s="68"/>
+    </row>
+    <row r="4" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>93</v>
+    <row r="5" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>93</v>
+    <row r="6" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>342</v>
+      <c r="K7" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I8" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/MVT-CD3-Template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/MVT-CD3-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -40,14 +40,14 @@
     <definedName name="Shape_Option" localSheetId="20">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
-    <definedName name="VM_Shapes">DB_System_VM!$Y$398:$Y$408</definedName>
+    <definedName name="VM_Shapes">DB_System_VM!$Y$397:$Y$407</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="382">
   <si>
     <t>Regional</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ssh_public_key</t>
   </si>
   <si>
+    <t>PHXHub-VCN</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>PHXNonProd-VCN</t>
   </si>
   <si>
     <t>subnet_name</t>
@@ -131,9 +131,6 @@
     <t>OS</t>
   </si>
   <si>
-    <t>Subnet</t>
-  </si>
-  <si>
     <t>Enviroment</t>
   </si>
   <si>
@@ -194,15 +191,9 @@
     <t>Networking</t>
   </si>
   <si>
-    <t>Compartment for Networking Objects</t>
-  </si>
-  <si>
     <t>&lt;END&gt;</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>OCI_Admins</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>Network_Admins</t>
   </si>
   <si>
-    <t>Network Administrators</t>
-  </si>
-  <si>
     <t>Policy Statements</t>
   </si>
   <si>
@@ -342,9 +330,6 @@
   </si>
   <si>
     <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet; server_type field is also case-sensitive.  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
-  </si>
-  <si>
-    <t>Test1</t>
   </si>
   <si>
     <t>all</t>
@@ -367,21 +352,11 @@
 Enter Region as your tenancy's Home Region for Group Creation</t>
   </si>
   <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-Enter Region as your tenancy's Home Region for Tags Creation</t>
-  </si>
-  <si>
     <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;If Compartment Name is left empty or mentioned 'root', policy will be created in root compartment;
 # Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
 Enter Region as your tenancy's Home Region for Policy Creation</t>
   </si>
   <si>
-    <t>regions</t>
-  </si>
-  <si>
-    <t>Ashburn,Phoenix</t>
-  </si>
-  <si>
     <t>NSGName</t>
   </si>
   <si>
@@ -409,36 +384,15 @@
     <t>udp</t>
   </si>
   <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>oci-phx-objectstorage</t>
-  </si>
-  <si>
     <t>NSGs</t>
   </si>
   <si>
     <t>Valid values for sourcetype or destinationtype are: cidr(for CIDR_BLOCK), nsg(for NETWORK_SECURITY_GROUP) and service(for SERVICE_CIDR_BLOCK)</t>
   </si>
   <si>
-    <t>VM-Resources</t>
-  </si>
-  <si>
-    <t>Compartment for all other Resources</t>
-  </si>
-  <si>
-    <t>ASHProd-VCN</t>
-  </si>
-  <si>
-    <t>dev-subnet</t>
-  </si>
-  <si>
     <t>10.110.1.0/24</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>FAULT-DOMAIN-1</t>
   </si>
   <si>
@@ -448,12 +402,6 @@
     <t>VM.Standard2.8</t>
   </si>
   <si>
-    <t>LinuxLatest</t>
-  </si>
-  <si>
-    <t>Test1_disk2</t>
-  </si>
-  <si>
     <t>paravirtualized</t>
   </si>
   <si>
@@ -475,21 +423,9 @@
     <t>OL76=</t>
   </si>
   <si>
-    <t>prod=</t>
-  </si>
-  <si>
-    <t>dev=true</t>
-  </si>
-  <si>
     <t>prod=True</t>
   </si>
   <si>
-    <t>ash-nsg2</t>
-  </si>
-  <si>
-    <t>ash-nsg1</t>
-  </si>
-  <si>
     <t>phx-nsg1</t>
   </si>
   <si>
@@ -517,19 +453,7 @@
     <t>DVH.Standard2.52</t>
   </si>
   <si>
-    <t>VM2</t>
-  </si>
-  <si>
     <t>AD2</t>
-  </si>
-  <si>
-    <t>FAULT-DOMAIN-3</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>VM1</t>
   </si>
   <si>
     <t>All fields are mandatory except fault domain which you can leave blank</t>
@@ -610,9 +534,6 @@
   </si>
   <si>
     <t>LBR Hostname</t>
-  </si>
-  <si>
-    <t>my_lbr</t>
   </si>
   <si>
     <t>Backend
@@ -636,16 +557,10 @@
     <t>400Mbps</t>
   </si>
   <si>
-    <t>10.111.1.4:80,Test2:81</t>
-  </si>
-  <si>
     <t>IP_HASH</t>
   </si>
   <si>
     <t>/welcome.html</t>
-  </si>
-  <si>
-    <t>app.example.com</t>
   </si>
   <si>
     <t>UseSSL (y|n)</t>
@@ -873,9 +788,6 @@
     <t>MT2</t>
   </si>
   <si>
-    <t>HUB_SERVICES_SN</t>
-  </si>
-  <si>
     <t>FSS3</t>
   </si>
   <si>
@@ -918,9 +830,6 @@
     <t>RuleDescription</t>
   </si>
   <si>
-    <t>objectstorage</t>
-  </si>
-  <si>
     <t>Character Set</t>
   </si>
   <si>
@@ -930,9 +839,6 @@
     <t>Recovery Windows in days</t>
   </si>
   <si>
-    <t>TestK_testk_sub_1</t>
-  </si>
-  <si>
     <t>VMDB28</t>
   </si>
   <si>
@@ -948,12 +854,6 @@
     <t>RACDB21</t>
   </si>
   <si>
-    <t>VMDB282</t>
-  </si>
-  <si>
-    <t>RACDB212</t>
-  </si>
-  <si>
     <t>VM Shapes</t>
   </si>
   <si>
@@ -1005,9 +905,6 @@
     <t>Backup Subnet Name</t>
   </si>
   <si>
-    <t>TestK_testk_sub_2</t>
-  </si>
-  <si>
     <t>EXADB21</t>
   </si>
   <si>
@@ -1032,20 +929,181 @@
     <t>Exadata.Full1.336</t>
   </si>
   <si>
+    <t>PHXHub-VCN_PHXHub-VCN-subnet1</t>
+  </si>
+  <si>
+    <t>lpg_required</t>
+  </si>
+  <si>
+    <t>hub_spoke_peer_none</t>
+  </si>
+  <si>
+    <t>onprem_destinations</t>
+  </si>
+  <si>
+    <t>configure SGW route
+(n|object_storage|all_services)</t>
+  </si>
+  <si>
+    <t>configure NGW route
+(y|n)</t>
+  </si>
+  <si>
+    <t>configure IGW route (y|n)</t>
+  </si>
+  <si>
+    <t>configure OnPrem route (y|n)</t>
+  </si>
+  <si>
+    <t>configure VCNPeering
+route (y|n)</t>
+  </si>
+  <si>
+    <t>RouteTableName</t>
+  </si>
+  <si>
+    <t>SecListName</t>
+  </si>
+  <si>
+    <t>#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>Route Rules will be exported here</t>
+  </si>
+  <si>
+    <t>SecRules will be exported here</t>
+  </si>
+  <si>
+    <t>seclist_names</t>
+  </si>
+  <si>
+    <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
+left blank means subnet will use default dhcp options of the vcn.
+dns_label - if specified as n, DNS will not be enabled for the subnet; Make sure dns_label for VCN is enabled for its subnet DNS to be enabled.
+vcn_name should be same as enterd in VCNs sheet.
+Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
+want any custom security list to be attached to the subnet.
+route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
+ want any custom route table to be attached to the subnet.
+Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
+dns_label - if specified as n, DNS will not be enabled for the VCN
+Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
+Note- For DRG, if declaring multiple DRGs for a region, make sure to specify unique names.
+Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
+Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
+</t>
+  </si>
+  <si>
     <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>lpg_required</t>
-  </si>
-  <si>
-    <t>hub_spoke_peer_none</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>onprem_destinations</t>
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+#If shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::ocpus</t>
+  </si>
+  <si>
+    <t>ListenerName</t>
+  </si>
+  <si>
+    <t>listenr1</t>
+  </si>
+  <si>
+    <t>listenr2</t>
+  </si>
+  <si>
+    <t>my_lbr1</t>
+  </si>
+  <si>
+    <t>my_lbr2</t>
+  </si>
+  <si>
+    <t>100Mbps</t>
+  </si>
+  <si>
+    <t>10.111.1.5:80,Test2:81</t>
+  </si>
+  <si>
+    <t>10.111.1.4:80,Test1:81</t>
+  </si>
+  <si>
+    <t>10.111.1.6:80</t>
+  </si>
+  <si>
+    <t>listenr</t>
+  </si>
+  <si>
+    <t>ROUND_ROBIN</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>app1.example.com</t>
+  </si>
+  <si>
+    <t>app2.example.com,app3.example.com</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical column under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+Enter Region as your tenancy's Home Region for Tags Creation</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN</t>
+  </si>
+  <si>
+    <t>PHXTCC-VCN</t>
+  </si>
+  <si>
+    <t>all_services</t>
+  </si>
+  <si>
+    <t>ebs-nsg</t>
+  </si>
+  <si>
+    <t>tcc-nsg</t>
+  </si>
+  <si>
+    <t>EBSInstance</t>
+  </si>
+  <si>
+    <t>TCCInstance</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN_qa-subnet</t>
+  </si>
+  <si>
+    <t>PHXTCC-VCN_prd-subnet</t>
+  </si>
+  <si>
+    <t>Apps::TCC::PRD</t>
+  </si>
+  <si>
+    <t>EBSInstance_Disk2</t>
+  </si>
+  <si>
+    <t>TCCInstance_Disk2</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN_dev-subnet</t>
   </si>
   <si>
     <r>
@@ -1137,19 +1195,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> represents naming convention; Mention y if you want to attachd AD and CIDR to object's display name; defaults to n
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">regions </t>
+      <t xml:space="preserve"> represents naming convention; Mention y if you want to attachd AD and CIDR to object's display name; defaults to n</t>
     </r>
     <r>
       <rPr>
@@ -1159,33 +1205,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">represents regions client's tenancy is subscribed to and plan to build infra for;accepts comma seperated list; case insensitive; (allowed values: ashburn, phoenix, london, frankfurt, toronto, tokyo, seoul, mumbai)
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
   <si>
-    <t>configure SGW route
-(n|object_storage|all_services)</t>
-  </si>
-  <si>
-    <t>configure NGW route
-(y|n)</t>
-  </si>
-  <si>
-    <t>configure IGW route (y|n)</t>
-  </si>
-  <si>
-    <t>configure OnPrem route (y|n)</t>
-  </si>
-  <si>
-    <t>configure VCNPeering
-route (y|n)</t>
-  </si>
-  <si>
-    <t>RouteTableName</t>
-  </si>
-  <si>
-    <t>SecListName</t>
+    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, LBR Hostname is to be left empty if creating TCP listener; all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; Allows multiple Listeners(seperate rows) per LBR and multiple Hostnames(comma seperated) per Listener
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>20.20.20.20/32</t>
   </si>
   <si>
     <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
@@ -1193,144 +1222,125 @@
 Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
 Resources will be created based on MountTargetName and FSSName columns.
 #Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
-  </si>
-  <si>
-    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; As of now allows only one BackendSet, One Listener and one Hostname for each LBR
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>Route Rules will be exported here</t>
-  </si>
-  <si>
-    <t>SecRules will be exported here</t>
-  </si>
-  <si>
-    <t>seclist_names</t>
-  </si>
-  <si>
-    <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
-left blank means subnet will use default dhcp options of the vcn.
-dns_label - if specified as n, DNS will not be enabled for the subnet; Make sure dns_label for VCN is enabled for its subnet DNS to be enabled.
-vcn_name should be same as enterd in VCNs sheet.
-Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
-want any custom security list to be attached to the subnet.
-route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
- want any custom route table to be attached to the subnet.
-Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
-dns_label - if specified as n, DNS will not be enabled for the VCN
-Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
-Note- For DRG, if declaring multiple DRGs for a region, make sure to specify unique names.
-Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
-Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
-</t>
-  </si>
-  <si>
-    <t>Automation Toolkit release verion- v6.0
-Tabs Affected: Subnets
-Major Feature - Support for NonGreenField Tenancies</t>
-  </si>
-  <si>
-    <t>Apps</t>
+Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4); Also shows multiple export options</t>
+  </si>
+  <si>
+    <t>LinuxLatest</t>
+  </si>
+  <si>
+    <t>Automation Toolkit release verion- v6.1
+Tabs Affected: SecRulesinOCI, RouteRulesinOCI, VCN Info, FSS, LBR, Instances
+Major Features - Support for Duplicate Compartment Names, New GIT Repo</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Compartment for Networking Objects</t>
+  </si>
+  <si>
+    <t>Compartment for all other Resources</t>
+  </si>
+  <si>
+    <t>OCI_Viewers</t>
+  </si>
+  <si>
+    <t>Viewer Group</t>
+  </si>
+  <si>
+    <t>Network Administrators</t>
+  </si>
+  <si>
+    <t>Apps_Admins</t>
+  </si>
+  <si>
+    <t>Compute Apps admins</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
+    <t>Administrators</t>
+  </si>
+  <si>
     <t>Allow group $ to manage all-resources in tenancy</t>
   </si>
   <si>
-    <t>Administrators</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
+    <t>ViewerPolicy</t>
+  </si>
+  <si>
+    <t>Viewers</t>
+  </si>
+  <si>
+    <t>AppsPolicy</t>
+  </si>
+  <si>
+    <t>Apps Manage</t>
+  </si>
+  <si>
+    <t>Allow group $ to manage database-family in compartment *</t>
+  </si>
+  <si>
+    <t>Allow group $ to manage volume-family in compartment *</t>
+  </si>
+  <si>
+    <t>Allow group $ to use virtual-network-family in compartment *</t>
+  </si>
+  <si>
+    <t>InfrastructurePolicy</t>
+  </si>
+  <si>
+    <t>Infrastructure Manage</t>
   </si>
   <si>
     <t>Allow group $ to manage virtual-network-family in compartment *</t>
   </si>
   <si>
-    <t>Allow group $ to use virtual-network-family in compartment *</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage volume-family in compartment *</t>
-  </si>
-  <si>
     <t>mvt-vcn</t>
   </si>
   <si>
-    <t>172.0.0.0/8</t>
+    <t>none</t>
   </si>
   <si>
     <t>mvt-dmz</t>
   </si>
   <si>
+    <t>public</t>
+  </si>
+  <si>
     <t>mvt-app</t>
   </si>
   <si>
+    <t>10.110.2.0/24</t>
+  </si>
+  <si>
     <t>mvt-db</t>
   </si>
   <si>
-    <t>10.110.2.0/24</t>
-  </si>
-  <si>
     <t>10.110.3.0/24</t>
   </si>
   <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>all_services</t>
-  </si>
-  <si>
-    <t>AppsPolicy</t>
-  </si>
-  <si>
-    <t>Apps Manage</t>
-  </si>
-  <si>
-    <t>InfrastructurePolicy</t>
-  </si>
-  <si>
-    <t>Infrastructure Manage</t>
+    <t>mvt-dmz1</t>
+  </si>
+  <si>
+    <t>mvt-vcn_mvt-dmz</t>
+  </si>
+  <si>
+    <t>mvt-dmz2</t>
   </si>
   <si>
     <t>mvt-app1</t>
   </si>
   <si>
+    <t>mvt-vcn_mvt-app</t>
+  </si>
+  <si>
     <t>mvt-app2</t>
   </si>
   <si>
-    <t>mvt-vcn_mvt-dmz</t>
-  </si>
-  <si>
-    <t>mvt-vcn_mvt-app</t>
-  </si>
-  <si>
     <t>mvt-vcn_mvt-db</t>
   </si>
   <si>
-    <t>mvt-dmz1</t>
-  </si>
-  <si>
-    <t>mvt-dmz2</t>
-  </si>
-  <si>
     <t>mvt-dmz1_Disk2</t>
   </si>
   <si>
@@ -1344,27 +1354,6 @@
   </si>
   <si>
     <t>mvt-db_Disk2</t>
-  </si>
-  <si>
-    <t>Apps_Admins</t>
-  </si>
-  <si>
-    <t>Compute Apps admins</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage database-family in compartment *</t>
-  </si>
-  <si>
-    <t>OCI_Viewers</t>
-  </si>
-  <si>
-    <t>Viewer Group</t>
-  </si>
-  <si>
-    <t>ViewerPolicy</t>
-  </si>
-  <si>
-    <t>Viewers</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1637,7 +1626,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1654,7 +1642,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1664,6 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1717,13 +1705,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2182,7 +2164,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2191,8 +2173,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
-        <v>341</v>
+      <c r="A2" s="43" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2205,15 +2187,15 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
@@ -2222,21 +2204,21 @@
     <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2254,18 +2236,18 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C3" s="1">
         <v>500</v>
@@ -2274,22 +2256,22 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C4" s="1">
         <v>500</v>
@@ -2298,22 +2280,22 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
@@ -2322,22 +2304,22 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1">
         <v>500</v>
@@ -2346,22 +2328,22 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -2370,16 +2352,17 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
+        <v>320</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -2390,66 +2373,72 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="19.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.08984375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.81640625" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="16" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:10" s="30" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2458,127 +2447,133 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="17.7265625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="17.7265625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="16" customWidth="1"/>
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="17"/>
+    <col min="16" max="16" width="9.1796875" style="16"/>
     <col min="17" max="17" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-    </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="12" t="s">
+    <row r="1" spans="1:18" s="30" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+    </row>
+    <row r="2" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="P2" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2589,7 +2584,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2607,113 +2602,113 @@
     <col min="18" max="18" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="N2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="O2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R2" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="26"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>117</v>
+        <v>104</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2721,47 +2716,45 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="O4" s="1">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -2769,31 +2762,31 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2801,44 +2794,44 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>143</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I6" s="24"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="1">
+        <v>53</v>
+      </c>
+      <c r="O6" s="1">
+        <v>53</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2854,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2870,102 +2863,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>151</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2977,127 +2938,127 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="16" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="26" customWidth="1"/>
     <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="16" customWidth="1"/>
     <col min="12" max="12" width="10.1796875" customWidth="1"/>
     <col min="13" max="13" width="12.26953125" customWidth="1"/>
     <col min="16" max="16" width="11.1796875" customWidth="1"/>
     <col min="17" max="17" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-    </row>
-    <row r="2" spans="1:17" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+    </row>
+    <row r="2" spans="1:17" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>149</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3106,166 +3067,191 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>265</v>
-      </c>
+    <row r="4" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>265</v>
+        <v>149</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>284</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3278,175 +3264,291 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="17"/>
-    <col min="2" max="2" width="12.54296875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="17"/>
-    <col min="4" max="4" width="12.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="17"/>
-    <col min="14" max="14" width="15.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="14.6328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="17"/>
-    <col min="18" max="18" width="11.36328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="16"/>
+    <col min="2" max="2" width="12.54296875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="16"/>
+    <col min="4" max="4" width="12.1796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="16"/>
+    <col min="15" max="15" width="15.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="16"/>
+    <col min="19" max="19" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.36328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-    </row>
-    <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>58</v>
+    <row r="1" spans="1:20" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+    </row>
+    <row r="2" spans="1:20" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>163</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="1">
+        <v>164</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="1">
         <v>80</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="1">
+        <v>165</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="1">
         <v>443</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S3" s="1"/>
+      <c r="O3" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="1">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="1">
+        <v>443</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="1">
+        <v>80</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N5" s="1">
+        <v>80</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3455,44 +3557,43 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>25</v>
@@ -3500,189 +3601,162 @@
       <c r="F2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="67" t="s">
+      <c r="D3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="68"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="68"/>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="11"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="11"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="11"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="11"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="11"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="68"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="68"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="69"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:C18"/>
     <mergeCell ref="B3:B18"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3692,95 +3766,84 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>80</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3788,95 +3851,84 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="18" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>80</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3887,78 +3939,120 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3988,197 +4082,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="A1" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>207</v>
+      <c r="A2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="31">
+      <c r="A3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="30">
         <v>1</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>1</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>211</v>
+      <c r="H3" s="30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>214</v>
+      <c r="H4" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="30">
         <v>1</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>211</v>
+      <c r="H5" s="30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>214</v>
+      <c r="H6" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="A7" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>214</v>
+      <c r="H7" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="31">
+      <c r="A8" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="30">
         <v>1</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>1</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>214</v>
+      <c r="H8" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4191,276 +4285,276 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y408"/>
+  <dimension ref="A1:Y407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="20" style="31" customWidth="1"/>
-    <col min="4" max="4" width="14" style="31" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="15" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="31"/>
-    <col min="11" max="11" width="17.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="31"/>
-    <col min="18" max="18" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="13.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="31"/>
-    <col min="25" max="25" width="18.26953125" style="31" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
+    <col min="2" max="2" width="13.36328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="30"/>
+    <col min="11" max="11" width="17.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="30"/>
+    <col min="18" max="18" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="30"/>
+    <col min="25" max="25" width="18.26953125" style="30" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="33" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="73"/>
+    <row r="1" spans="1:23" s="32" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="68"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>283</v>
+      <c r="U2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>199</v>
+      <c r="A3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="G3" s="39">
+      <c r="E3" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="38">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="39">
+      <c r="H3" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="38">
         <v>256</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T3" s="39" t="s">
+      <c r="J3" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>199</v>
+      <c r="A4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="39">
+      <c r="E4" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="38">
         <v>2</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I4" s="39">
+      <c r="H4" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="38">
         <v>256</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T4" s="39" t="s">
+      <c r="J4" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="T4" s="38" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -4468,139 +4562,68 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="39">
-        <v>2</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="39">
-        <v>256</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T5" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="W5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="396" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y396" s="42" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y397" s="43" t="s">
-        <v>292</v>
+      <c r="Y397" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="403" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y403" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="404" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y404" s="1" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
     </row>
     <row r="405" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y405" s="1" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="406" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y406" s="1" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
     </row>
     <row r="407" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y407" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="408" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y408" s="1" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4608,8 +4631,8 @@
     <mergeCell ref="A1:W1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F402">
-      <formula1>$Y$398:$Y$408</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F401">
+      <formula1>$Y$397:$Y$407</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4622,297 +4645,297 @@
   <dimension ref="A1:Y398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="31"/>
-    <col min="4" max="4" width="9.81640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="31"/>
-    <col min="11" max="11" width="8.7265625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" style="31" customWidth="1"/>
-    <col min="17" max="18" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="13.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="31"/>
-    <col min="25" max="25" width="14.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
+    <col min="2" max="2" width="13.36328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="30"/>
+    <col min="4" max="4" width="9.81640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="30"/>
+    <col min="11" max="11" width="8.7265625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="30" customWidth="1"/>
+    <col min="17" max="18" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="30"/>
+    <col min="25" max="25" width="14.90625" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="33" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="42"/>
+    <row r="1" spans="1:24" s="32" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="38">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="38">
+        <v>256</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="36" t="s">
+      <c r="N3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="P3" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" s="39">
-        <v>2</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="I3" s="39">
+      <c r="S3" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="T3" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>199</v>
+      <c r="A4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="38">
+        <v>2</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="38">
+        <v>256</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="39">
-        <v>2</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="39">
+      <c r="V4" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="31"/>
+      <c r="A5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="30"/>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y396" s="43" t="s">
-        <v>303</v>
+      <c r="Y396" s="42" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4937,250 +4960,252 @@
   <dimension ref="A1:Y402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="31"/>
-    <col min="11" max="11" width="17.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" style="31" customWidth="1"/>
-    <col min="17" max="18" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="13.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="31"/>
-    <col min="25" max="25" width="18.26953125" style="31" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
+    <col min="2" max="2" width="13.36328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="30"/>
+    <col min="11" max="11" width="17.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="30" customWidth="1"/>
+    <col min="17" max="18" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="30"/>
+    <col min="25" max="25" width="18.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="33" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="73"/>
+    <row r="1" spans="1:23" s="32" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="68"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="34" t="s">
+      <c r="U2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="P2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>2</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>256</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T3" s="39" t="s">
+      <c r="J3" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="31"/>
+      <c r="A4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="27"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="395" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y395" s="43" t="s">
-        <v>311</v>
+      <c r="Y395" s="42" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5205,94 +5230,92 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
+      <c r="A1" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5308,219 +5331,214 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="A1" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5535,47 +5553,47 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="18.08984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="18.08984375" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
     <col min="6" max="6" width="12.08984375" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="31" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="30" customWidth="1"/>
     <col min="10" max="10" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
+      <c r="A1" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5584,95 +5602,111 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+    </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5691,69 +5725,63 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="32.26953125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="61"/>
+      <c r="A1" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>88</v>
+      <c r="A2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>351</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5769,16 +5797,16 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="18" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
+    <col min="2" max="2" width="18" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.453125" customWidth="1"/>
@@ -5787,22 +5815,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="A1" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5822,8 +5850,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5839,15 +5873,15 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="30"/>
     <col min="2" max="2" width="18.36328125" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
@@ -5855,43 +5889,43 @@
     <col min="6" max="6" width="22.1796875" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="31" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="30" customWidth="1"/>
     <col min="12" max="12" width="9.81640625" customWidth="1"/>
     <col min="13" max="13" width="9.453125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10" style="31" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="10" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="30" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="A1" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
     </row>
     <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5912,93 +5946,93 @@
         <v>23</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
-        <v>94</v>
+        <v>290</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="13" t="s">
-        <v>10</v>
+      <c r="K3" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -6010,40 +6044,40 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="N4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -6055,28 +6089,28 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="P5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6095,59 +6129,114 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+    <row r="7" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6163,15 +6252,15 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
     <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
@@ -6179,7 +6268,7 @@
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
     <col min="10" max="10" width="16.81640625" customWidth="1"/>
     <col min="11" max="11" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
@@ -6188,246 +6277,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="56"/>
+      <c r="A1" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>158</v>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>93</v>
+    <row r="5" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>93</v>
+    <row r="6" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>342</v>
+      <c r="K7" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I8" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
